--- a/Data/ExternalData.xlsx
+++ b/Data/ExternalData.xlsx
@@ -1,24 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA8E66C-6CCF-491E-9CDE-EB56C60028A6}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6A297D4-2F59-4D6F-A160-AA1A0BC24DA3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Data" sheetId="1" r:id="rId1"/>
-    <sheet name="SignInPage" sheetId="2" r:id="rId2"/>
-    <sheet name="ConfirmOrderPage" sheetId="3" r:id="rId3"/>
-    <sheet name="ResultPage" sheetId="4" r:id="rId4"/>
+    <sheet name="SignInPage" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Data</t>
   </si>
@@ -26,71 +23,23 @@
     <t>Value</t>
   </si>
   <si>
-    <t>Default Login username</t>
-  </si>
-  <si>
-    <t>Default Login password</t>
-  </si>
-  <si>
-    <t>password9</t>
-  </si>
-  <si>
-    <t>anjana.kulasinghe@gmail.com</t>
-  </si>
-  <si>
-    <t>VerificationText</t>
-  </si>
-  <si>
-    <t>Login Page</t>
-  </si>
-  <si>
-    <t>Main Page</t>
-  </si>
-  <si>
-    <t>Demo Organization</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
-    <t>pubuduhp@gmail.com</t>
-  </si>
-  <si>
     <t>Password</t>
   </si>
   <si>
     <t>Test@albany</t>
   </si>
   <si>
-    <t>CHECK PAYMENT</t>
-  </si>
-  <si>
-    <t>PaymentTypeSubHeadingWire</t>
-  </si>
-  <si>
-    <t>PaymentTypeSubHeadingCheque</t>
-  </si>
-  <si>
-    <t>BANK-WIRE PAYMENT</t>
-  </si>
-  <si>
-    <t>OrderResultsTextByWire</t>
-  </si>
-  <si>
-    <t>OrderResultsTextByCheque</t>
-  </si>
-  <si>
-    <t>YOUR CHECK MUST INCLUDE</t>
-  </si>
-  <si>
-    <t>Your order on My Store is complete</t>
+    <t>tikiritests@gmail.com</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -114,15 +63,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -132,12 +74,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="1" tint="0.34998626667073579"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -155,13 +91,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -500,11 +433,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B6"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -522,90 +455,19 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="3"/>
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
         <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="3"/>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A5:B5"/>
-  </mergeCells>
-  <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="A1:B11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="22.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.54296875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -616,98 +478,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA494CF3-C3B8-4BC1-8BBA-C9F325E9A00C}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="pubuduhp@gmail.com" xr:uid="{5D5D8A9C-FEC8-4CAF-85ED-83A46760DF93}"/>
-    <hyperlink ref="B3" r:id="rId2" display="Test@albany" xr:uid="{344FCBFA-B763-4ECF-B035-FB150BD6663D}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63DDA76D-7FC0-4A27-A3BB-11755B8CEC63}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="30.1796875" customWidth="1"/>
-    <col min="2" max="2" width="24.90625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" display="pubuduhp@gmail.com" xr:uid="{380614E2-A810-4F60-82E7-5424535B0B2F}"/>
-    <hyperlink ref="B3" r:id="rId2" display="Test@albany" xr:uid="{2F52DFE9-3ACF-499C-B388-37A1B220D53F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>